--- a/Jan 2020 to Feb 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jan 2020 to Feb 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F75A99-E58A-414F-8781-7CBD8B46BDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1FC3FF-4BEF-4E31-8BF3-07773587A54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,30 +187,6 @@
     <t>Watch It Scream!</t>
   </si>
   <si>
-    <t>New Network added to Database in Feb 2020</t>
-  </si>
-  <si>
-    <t>Old Network removed from Database in Feb 2020</t>
-  </si>
-  <si>
-    <t>New Alias created for Network in Feb 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Base Service in Feb 2020</t>
-  </si>
-  <si>
-    <t>Network added to Base Service in Feb 2020</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Package within Service in Feb 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Package with Service in Feb 2020</t>
-  </si>
-  <si>
-    <t>Network moved from one Add-On Package to another within Service</t>
-  </si>
-  <si>
     <t>PAC12 LA, PAC12 Los Angeles</t>
   </si>
   <si>
@@ -218,6 +194,30 @@
   </si>
   <si>
     <t>PAC12 Bay Area, PAC12 BayArea</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service in Feb 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service in Feb 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Database in Feb 2020</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1109,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1126,7 +1126,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1137,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1151,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1168,7 +1168,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1182,7 +1182,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1196,7 +1196,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1252,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1336,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1406,7 +1406,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1420,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1434,7 +1434,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1448,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1462,7 +1462,7 @@
         <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1476,7 +1476,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1490,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1504,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1518,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1532,7 +1532,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1591,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1605,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1664,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1678,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1692,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
